--- a/ZF440N_0328/Források/ZF440N_1fel.xlsx
+++ b/ZF440N_0328/Források/ZF440N_1fel.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.IIT.001\Desktop\Források\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyuri\OS\ZF440NOsGyak\ZF440N_0328\Források\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65158FD6-6AC6-4FBF-819F-9314ABEE1542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>P1</t>
   </si>
@@ -62,9 +73,6 @@
     <t>RR: 10ms</t>
   </si>
   <si>
-    <t>sorrend</t>
-  </si>
-  <si>
     <t>0, 10</t>
   </si>
   <si>
@@ -111,12 +119,21 @@
   </si>
   <si>
     <t>Körülfordulási idők:</t>
+  </si>
+  <si>
+    <t>össz:</t>
+  </si>
+  <si>
+    <t>Sorrend:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,6 +332,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,7 +341,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -600,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,10 +648,10 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -652,9 +670,12 @@
         <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="K2" s="13">
+        <f>((68-4)/68)</f>
+        <v>0.94117647058823528</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -672,8 +693,15 @@
       <c r="E3" s="4">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3:E3)</f>
+        <v>68</v>
+      </c>
       <c r="J3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="12">
         <f>AVERAGE(B7:E7)</f>
@@ -697,7 +725,7 @@
         <v>58</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="12">
         <f>AVERAGE(B6:E6)</f>
@@ -721,7 +749,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="12">
         <f>AVERAGE(B6:E6)</f>
@@ -748,7 +776,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <f>SUM(B3,B6)</f>
@@ -767,23 +795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
@@ -800,10 +812,10 @@
       <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -822,9 +834,12 @@
         <v>20</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="K15" s="13">
+        <f>((68-4)/68)</f>
+        <v>0.94117647058823528</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -842,8 +857,15 @@
       <c r="E16" s="4">
         <v>10</v>
       </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <f>SUM(B16:E16)</f>
+        <v>68</v>
+      </c>
       <c r="J16" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="12">
         <f>AVERAGE(B20:E20)</f>
@@ -867,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="12">
         <f>AVERAGE(B19:E19)</f>
@@ -891,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="12">
         <f>AVERAGE(B19:E19)</f>
@@ -917,7 +939,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <f>SUM(B16,B19)</f>
@@ -934,6 +956,23 @@
       <c r="E20">
         <f t="shared" si="1"/>
         <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -953,50 +992,60 @@
       <c r="E28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2">
         <v>20</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="K29" s="13">
+        <f>((120-8)/120)</f>
+        <v>0.93333333333333335</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4">
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4">
         <v>10</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <f>14+4+8+36+26+16+6+10</f>
+        <v>120</v>
+      </c>
       <c r="J30" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" s="12">
         <f>(0+8+3+11+10+12)/4</f>
@@ -1008,19 +1057,19 @@
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="4">
         <v>32</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="12">
         <f>AVERAGE(B34:E34)</f>
@@ -1032,19 +1081,19 @@
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4">
         <v>18</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="4">
         <v>42</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K32" s="12">
         <f>(8+3+10+11+12)/4</f>
@@ -1056,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="4">
         <v>12</v>
@@ -1071,7 +1120,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="9">
         <f>14+(4+8)</f>
